--- a/Documentation/KPIs.xlsx
+++ b/Documentation/KPIs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25718"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3420585d5084c150/Chalmers/Programmering/Agil Scrum/naboo/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1122" documentId="8_{795D7524-F981-453B-973C-EEE833B367F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02611645-224F-4BE9-80DA-AF278CB6D4B9}"/>
+  <xr:revisionPtr revIDLastSave="1234" documentId="8_{795D7524-F981-453B-973C-EEE833B367F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5658BC35-4EE2-42AA-A3FA-A4CB4CF7F482}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="345" windowWidth="27960" windowHeight="13335" activeTab="2" xr2:uid="{2E9AC2AD-2269-4B63-BA1E-15AFE92C4584}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{2E9AC2AD-2269-4B63-BA1E-15AFE92C4584}"/>
   </bookViews>
   <sheets>
     <sheet name="Main page" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,7 +480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -613,7 +613,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -687,7 +687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="788903656"/>
@@ -746,7 +746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="870000215"/>
@@ -788,7 +788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -818,7 +818,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -869,7 +869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1005,7 +1005,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1653752999"/>
@@ -1064,7 +1064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="939348056"/>
@@ -1106,7 +1106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1136,7 +1136,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1212,7 +1212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1274,7 +1274,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.7</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1345,7 +1345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1419,7 +1419,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1993518392"/>
@@ -1478,7 +1478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1141578776"/>
@@ -1520,7 +1520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1550,7 +1550,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1626,7 +1626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1710,7 +1710,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="sv-SE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1759,7 +1759,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,7 +1826,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1863,7 +1863,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1939,7 +1939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2074,7 +2074,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2154,7 +2154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1558351863"/>
@@ -2213,7 +2213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443466359"/>
@@ -2255,7 +2255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2285,7 +2285,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2361,7 +2361,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2440,7 +2440,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="sv-SE"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2486,10 +2486,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.7</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,7 +2556,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sv-SE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2586,7 +2586,973 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Total estimated time vs spent time on tasks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A4DC-4A5B-BE53-B4DDA46735EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A4DC-4A5B-BE53-B4DDA46735EA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Estimated</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Spent</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Sprint 3'!$C$15,'Sprint 3'!$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A4DC-4A5B-BE53-B4DDA46735EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9685695538057742E-2"/>
+          <c:y val="0.29224482356372122"/>
+          <c:w val="0.24896194225721785"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estimated time vs Total time, Per Task</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7692-48AB-A834-223AEED12476}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spent</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$J$5:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7692-48AB-A834-223AEED12476}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443466359"/>
+        <c:axId val="1558351863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443466359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1558351863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1558351863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443466359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Admin time vs Production time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-431B-4571-8FED-B96A856B56DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-431B-4571-8FED-B96A856B56DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>Production</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Admin</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Sprint 3'!$J$15,'Sprint 3'!$J$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-431B-4571-8FED-B96A856B56DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3186132983377111E-2"/>
+          <c:y val="0.28298556430446192"/>
+          <c:w val="0.28696106736657917"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2837,6 +3803,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5369,6 +6455,1547 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6505,8 +9132,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AB5686-C8CD-44AD-AD7B-E226101BF1FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAD56A9-F7EF-442C-A8C7-F91652E1B86E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7889794-A721-FD0F-878C-2A0AB3F520DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB80321-6F6E-4308-94F5-4B0C5DE8A1FD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4CB0F823-00B0-F141-FB2A-DD783F6E8603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6808,7 +9560,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
@@ -6818,7 +9570,7 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="36">
+    <row r="1" spans="1:45" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6867,7 +9619,7 @@
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
     </row>
-    <row r="2" spans="1:45" ht="15" customHeight="1">
+    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6914,7 +9666,7 @@
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
     </row>
-    <row r="3" spans="1:45" ht="15" customHeight="1">
+    <row r="3" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6961,7 +9713,7 @@
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
     </row>
-    <row r="4" spans="1:45" ht="15" customHeight="1">
+    <row r="4" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7008,7 +9760,7 @@
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7055,7 +9807,7 @@
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7102,7 +9854,7 @@
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -7149,7 +9901,7 @@
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -7196,7 +9948,7 @@
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -7243,7 +9995,7 @@
       <c r="AR9" s="4"/>
       <c r="AS9" s="4"/>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -7290,7 +10042,7 @@
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -7337,7 +10089,7 @@
       <c r="AR11" s="4"/>
       <c r="AS11" s="4"/>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -7384,7 +10136,7 @@
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -7431,7 +10183,7 @@
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -7478,7 +10230,7 @@
       <c r="AR14" s="4"/>
       <c r="AS14" s="4"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -7525,7 +10277,7 @@
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -7572,7 +10324,7 @@
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -7619,7 +10371,7 @@
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -7666,7 +10418,7 @@
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -7713,7 +10465,7 @@
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -7760,7 +10512,7 @@
       <c r="AR20" s="4"/>
       <c r="AS20" s="4"/>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -7807,7 +10559,7 @@
       <c r="AR21" s="4"/>
       <c r="AS21" s="4"/>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7854,7 +10606,7 @@
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -7901,7 +10653,7 @@
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7948,7 +10700,7 @@
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -7995,7 +10747,7 @@
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8042,7 +10794,7 @@
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8089,7 +10841,7 @@
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8136,7 +10888,7 @@
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -8183,7 +10935,7 @@
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8230,8 +10982,8 @@
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
     </row>
-    <row r="31" spans="1:45" s="4" customFormat="1"/>
-    <row r="32" spans="1:45" s="4" customFormat="1">
+    <row r="31" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>1</v>
@@ -8249,7 +11001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="4" customFormat="1">
+    <row r="33" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>6</v>
       </c>
@@ -8259,7 +11011,7 @@
       </c>
       <c r="D33" s="16">
         <f>'Sprint 2'!J15</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16">
         <f>'Sprint 2'!C65</f>
@@ -8267,23 +11019,23 @@
       </c>
       <c r="F33" s="10">
         <f>'Sprint 2'!J26</f>
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="G33" s="16">
         <f>'Sprint 2'!J15</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="4" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="16">
-        <f>'Sprint 3'!C16</f>
+        <f>'Sprint 3'!C15</f>
         <v>0</v>
       </c>
       <c r="D34" s="16">
-        <f>'Sprint 3'!J16</f>
+        <f>'Sprint 3'!J15</f>
         <v>0</v>
       </c>
       <c r="E34" s="16">
@@ -8291,15 +11043,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="10">
-        <f>'Sprint 3'!J27</f>
+        <f>'Sprint 3'!J26</f>
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <f>'Sprint 3'!J16</f>
+        <f>'Sprint 3'!J15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="4" customFormat="1">
+    <row r="35" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
@@ -8324,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="4" customFormat="1">
+    <row r="36" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>9</v>
       </c>
@@ -8349,42 +11101,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="4" customFormat="1"/>
-    <row r="38" spans="2:7" s="4" customFormat="1"/>
-    <row r="39" spans="2:7" s="4" customFormat="1"/>
-    <row r="40" spans="2:7" s="4" customFormat="1"/>
-    <row r="41" spans="2:7" s="4" customFormat="1"/>
-    <row r="42" spans="2:7" s="4" customFormat="1"/>
-    <row r="43" spans="2:7" s="4" customFormat="1"/>
-    <row r="44" spans="2:7" s="4" customFormat="1"/>
-    <row r="45" spans="2:7" s="4" customFormat="1"/>
-    <row r="46" spans="2:7" s="4" customFormat="1"/>
-    <row r="47" spans="2:7" s="4" customFormat="1"/>
-    <row r="48" spans="2:7" s="4" customFormat="1"/>
-    <row r="49" s="4" customFormat="1"/>
-    <row r="50" s="4" customFormat="1"/>
-    <row r="51" s="4" customFormat="1"/>
-    <row r="52" s="4" customFormat="1"/>
-    <row r="53" s="4" customFormat="1"/>
-    <row r="54" s="4" customFormat="1"/>
-    <row r="55" s="4" customFormat="1"/>
-    <row r="56" s="4" customFormat="1"/>
-    <row r="57" s="4" customFormat="1"/>
-    <row r="58" s="4" customFormat="1"/>
-    <row r="59" s="4" customFormat="1"/>
-    <row r="60" s="4" customFormat="1"/>
-    <row r="61" s="4" customFormat="1"/>
-    <row r="62" s="4" customFormat="1"/>
-    <row r="63" s="4" customFormat="1"/>
-    <row r="64" s="4" customFormat="1"/>
-    <row r="65" s="4" customFormat="1"/>
-    <row r="66" s="4" customFormat="1"/>
-    <row r="67" s="4" customFormat="1"/>
-    <row r="68" s="4" customFormat="1"/>
-    <row r="69" s="4" customFormat="1"/>
-    <row r="70" s="4" customFormat="1"/>
-    <row r="71" s="4" customFormat="1"/>
-    <row r="72" s="4" customFormat="1"/>
+    <row r="37" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8397,10 +11149,10 @@
   <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -8412,7 +11164,7 @@
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="36">
+    <row r="1" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
         <v>10</v>
@@ -8449,7 +11201,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8484,7 +11236,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" ht="18.75">
+    <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -8521,7 +11273,7 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="18" t="s">
         <v>12</v>
@@ -8574,7 +11326,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="19" t="s">
         <v>21</v>
@@ -8583,7 +11335,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="16">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="16">
         <v>3.5</v>
@@ -8596,7 +11348,7 @@
       </c>
       <c r="J5" s="16">
         <f>SUM(D5:H5)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8622,7 +11374,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="19" t="s">
         <v>22</v>
@@ -8664,7 +11416,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="19" t="s">
         <v>23</v>
@@ -8706,7 +11458,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="19" t="s">
         <v>24</v>
@@ -8750,7 +11502,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="19" t="s">
         <v>25</v>
@@ -8792,7 +11544,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="20" t="s">
         <v>26</v>
@@ -8836,7 +11588,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -8874,7 +11626,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8912,7 +11664,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -8950,7 +11702,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:33" ht="15.75" thickBot="1">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -8988,7 +11740,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
@@ -9002,7 +11754,7 @@
       </c>
       <c r="D15" s="21">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="1"/>
@@ -9026,7 +11778,7 @@
       </c>
       <c r="J15" s="21">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="4"/>
@@ -9052,7 +11804,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -9087,7 +11839,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="1:33" ht="18.75">
+    <row r="17" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
         <v>28</v>
@@ -9124,7 +11876,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -9173,7 +11925,7 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>31</v>
@@ -9221,7 +11973,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>32</v>
@@ -9269,7 +12021,7 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>33</v>
@@ -9309,7 +12061,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -9349,7 +12101,7 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -9391,7 +12143,7 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>36</v>
@@ -9431,7 +12183,7 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:33" ht="15.75" thickBot="1">
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
         <v>37</v>
@@ -9441,13 +12193,19 @@
         <v>1</v>
       </c>
       <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1</v>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -9473,7 +12231,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>27</v>
       </c>
@@ -9489,20 +12247,20 @@
       </c>
       <c r="F26" s="21">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21">
         <f t="shared" si="3"/>
-        <v>17.7</v>
+        <v>20.7</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -9528,7 +12286,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -9563,7 +12321,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -9598,7 +12356,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -9633,7 +12391,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -9668,7 +12426,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -9703,7 +12461,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -9738,7 +12496,7 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -9773,7 +12531,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33" ht="18.75">
+    <row r="34" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
@@ -9808,7 +12566,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9843,7 +12601,7 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -9878,7 +12636,7 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9913,7 +12671,7 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -9948,7 +12706,7 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -9983,7 +12741,7 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10018,7 +12776,7 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10053,7 +12811,7 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10088,7 +12846,7 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10123,7 +12881,7 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="13"/>
@@ -10158,7 +12916,7 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10193,7 +12951,7 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10228,7 +12986,7 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10263,7 +13021,7 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10298,7 +13056,7 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10333,7 +13091,7 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10368,7 +13126,7 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10403,7 +13161,7 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10438,7 +13196,7 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10473,7 +13231,7 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -10508,7 +13266,7 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -10543,7 +13301,7 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -10578,7 +13336,7 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10613,7 +13371,7 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -10648,7 +13406,7 @@
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -10673,7 +13431,7 @@
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -10698,7 +13456,7 @@
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -10707,10 +13465,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C66" s="14"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="14"/>
     </row>
   </sheetData>
@@ -10729,13 +13487,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F467162-F365-4176-A79F-2B1E84213E52}">
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -10747,7 +13505,7 @@
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="36">
+    <row r="1" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
         <v>39</v>
@@ -10784,7 +13542,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -10819,7 +13577,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" ht="18.75">
+    <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -10856,7 +13614,2250 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="18.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21">
+        <f>COUNTA(B5:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" ref="C15:J15" si="0">SUM(C5:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <f>SUM(D19:I19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <f t="shared" ref="J20:J25" si="1">SUM(D20:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
+        <f>SUM(D19:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" ref="E26:J26" si="2">SUM(E19:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65">
+        <f>B15-I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC26F7C-36A0-4940-9E86-13A620B94F68}">
+  <dimension ref="A1:AG68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4"/>
+      <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -10891,7 +15892,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
@@ -10944,7 +15945,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
@@ -10982,7 +15983,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="19"/>
       <c r="C7" s="16"/>
@@ -11020,7 +16021,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="19"/>
       <c r="C8" s="16"/>
@@ -11058,7 +16059,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
@@ -11096,7 +16097,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -11134,7 +16135,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="20"/>
       <c r="C11" s="16"/>
@@ -11172,7 +16173,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11210,7 +16211,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11248,7 +16249,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11286,7 +16287,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11324,7 +16325,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
@@ -11388,7 +16389,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -11423,7 +16424,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="1:33" ht="18.75">
+    <row r="18" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>28</v>
@@ -11460,7 +16461,7 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -11509,7 +16510,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -11549,7 +16550,7 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
@@ -11589,7 +16590,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>33</v>
@@ -11629,7 +16630,7 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -11669,7 +16670,7 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -11709,7 +16710,7 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>36</v>
@@ -11749,7 +16750,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -11789,7 +16790,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>27</v>
       </c>
@@ -11844,7 +16845,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -11879,7 +16880,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -11914,7 +16915,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -11949,7 +16950,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11984,7 +16985,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -12019,7 +17020,7 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12054,7 +17055,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12089,7 +17090,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33" ht="18.75">
+    <row r="35" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
@@ -12124,7 +17125,7 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -12159,7 +17160,7 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -12194,7 +17195,7 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -12229,7 +17230,7 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -12264,7 +17265,7 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -12299,7 +17300,7 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -12334,7 +17335,7 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -12369,7 +17370,7 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -12404,7 +17405,7 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -12439,7 +17440,7 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="13"/>
@@ -12474,7 +17475,7 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -12509,7 +17510,7 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -12544,7 +17545,7 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -12579,7 +17580,7 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -12614,7 +17615,7 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12649,7 +17650,7 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12684,7 +17685,7 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12719,7 +17720,7 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12754,7 +17755,7 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12789,7 +17790,7 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -12824,7 +17825,7 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12859,7 +17860,7 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -12894,7 +17895,7 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -12929,7 +17930,7 @@
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -12964,7 +17965,7 @@
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -12989,7 +17990,7 @@
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -13014,7 +18015,7 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -13023,10 +18024,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="14"/>
     </row>
   </sheetData>
@@ -13034,15 +18035,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC26F7C-36A0-4940-9E86-13A620B94F68}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69614DD3-9C29-4EB8-9567-32BC7CA0EEBE}">
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" customWidth="1"/>
@@ -13054,10 +18055,10 @@
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="36">
+    <row r="1" spans="1:33" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13091,7 +18092,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -13126,7 +18127,7 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
-    <row r="3" spans="1:33" ht="18.75">
+    <row r="3" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -13163,7 +18164,7 @@
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="18.75">
+    <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -13198,7 +18199,7 @@
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="18" t="s">
         <v>12</v>
@@ -13251,7 +18252,7 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
@@ -13289,7 +18290,7 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="19"/>
       <c r="C7" s="16"/>
@@ -13327,7 +18328,7 @@
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="19"/>
       <c r="C8" s="16"/>
@@ -13365,7 +18366,7 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
@@ -13403,7 +18404,7 @@
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16"/>
@@ -13441,7 +18442,7 @@
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="20"/>
       <c r="C11" s="16"/>
@@ -13479,7 +18480,7 @@
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -13517,7 +18518,7 @@
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -13555,7 +18556,7 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -13593,7 +18594,7 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -13631,7 +18632,7 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
@@ -13695,7 +18696,7 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -13730,7 +18731,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="1:33" ht="18.75">
+    <row r="18" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>28</v>
@@ -13767,7 +18768,7 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -13816,7 +18817,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -13856,7 +18857,7 @@
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
@@ -13896,7 +18897,7 @@
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>33</v>
@@ -13936,7 +18937,7 @@
       <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -13976,7 +18977,7 @@
       <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -14016,7 +19017,7 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>36</v>
@@ -14056,7 +19057,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -14096,7 +19097,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>27</v>
       </c>
@@ -14151,7 +19152,7 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14186,7 +19187,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -14221,7 +19222,7 @@
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -14256,7 +19257,7 @@
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -14291,7 +19292,7 @@
       <c r="AF31" s="4"/>
       <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -14326,7 +19327,7 @@
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -14361,7 +19362,7 @@
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -14396,7 +19397,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="1:33" ht="18.75">
+    <row r="35" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4"/>
@@ -14431,7 +19432,7 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -14466,7 +19467,7 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -14501,7 +19502,7 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -14536,7 +19537,7 @@
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -14571,7 +19572,7 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -14606,7 +19607,7 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -14641,7 +19642,7 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -14676,7 +19677,7 @@
       <c r="AF42" s="4"/>
       <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -14711,7 +19712,7 @@
       <c r="AF43" s="4"/>
       <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -14746,7 +19747,7 @@
       <c r="AF44" s="4"/>
       <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="13"/>
@@ -14781,7 +19782,7 @@
       <c r="AF45" s="4"/>
       <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -14816,7 +19817,7 @@
       <c r="AF46" s="4"/>
       <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -14851,7 +19852,7 @@
       <c r="AF47" s="4"/>
       <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -14886,7 +19887,7 @@
       <c r="AF48" s="4"/>
       <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -14921,7 +19922,7 @@
       <c r="AF49" s="4"/>
       <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -14956,7 +19957,7 @@
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -14991,7 +19992,7 @@
       <c r="AF51" s="4"/>
       <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -15026,7 +20027,7 @@
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -15061,7 +20062,7 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -15096,7 +20097,7 @@
       <c r="AF54" s="4"/>
       <c r="AG54" s="4"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -15131,7 +20132,7 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="4"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -15166,7 +20167,7 @@
       <c r="AF56" s="4"/>
       <c r="AG56" s="4"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -15201,7 +20202,7 @@
       <c r="AF57" s="4"/>
       <c r="AG57" s="4"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -15236,7 +20237,7 @@
       <c r="AF58" s="4"/>
       <c r="AG58" s="4"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -15271,7 +20272,7 @@
       <c r="AF59" s="4"/>
       <c r="AG59" s="4"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -15296,7 +20297,7 @@
       <c r="AF60" s="4"/>
       <c r="AG60" s="4"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -15321,7 +20322,7 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="4"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>38</v>
       </c>
@@ -15330,2317 +20331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" s="14"/>
     </row>
-    <row r="68" spans="2:3">
-      <c r="C68" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69614DD3-9C29-4EB8-9567-32BC7CA0EEBE}">
-  <dimension ref="A1:AG68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="36">
-      <c r="A1" s="4"/>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-    </row>
-    <row r="3" spans="1:33" ht="18.75">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" ht="18.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16">
-        <f>SUM(D6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16">
-        <f t="shared" ref="J7:J15" si="0">SUM(D7:H7)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="16"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12">
-        <f>COUNTA(B6:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <f t="shared" ref="C16:J16" si="1">SUM(C6:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-    </row>
-    <row r="18" spans="1:33" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-    </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <f>SUM(D20:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f t="shared" ref="J21:J26" si="2">SUM(D21:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-    </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-    </row>
-    <row r="26" spans="1:33">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-    </row>
-    <row r="27" spans="1:33">
-      <c r="A27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12">
-        <f>SUM(D20:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" ref="E27:J27" si="3">SUM(E20:E26)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-    </row>
-    <row r="28" spans="1:33">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-    </row>
-    <row r="29" spans="1:33">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-    </row>
-    <row r="30" spans="1:33">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-    </row>
-    <row r="31" spans="1:33">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-    </row>
-    <row r="32" spans="1:33">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-    </row>
-    <row r="33" spans="1:33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-    </row>
-    <row r="35" spans="1:33" ht="18.75">
-      <c r="A35" s="4"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-    </row>
-    <row r="39" spans="1:33">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-      <c r="AG40" s="4"/>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-    </row>
-    <row r="42" spans="1:33">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="1:33">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-    </row>
-    <row r="44" spans="1:33">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-    </row>
-    <row r="45" spans="1:33">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-    </row>
-    <row r="46" spans="1:33">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="4"/>
-    </row>
-    <row r="47" spans="1:33">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-    </row>
-    <row r="48" spans="1:33">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-      <c r="AG48" s="4"/>
-    </row>
-    <row r="49" spans="1:33">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-      <c r="AG49" s="4"/>
-    </row>
-    <row r="50" spans="1:33">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-      <c r="AG50" s="4"/>
-    </row>
-    <row r="51" spans="1:33">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-    </row>
-    <row r="52" spans="1:33">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-    </row>
-    <row r="53" spans="1:33">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-    </row>
-    <row r="54" spans="1:33">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-    </row>
-    <row r="55" spans="1:33">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-    </row>
-    <row r="56" spans="1:33">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-      <c r="AG56" s="4"/>
-    </row>
-    <row r="57" spans="1:33">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-    </row>
-    <row r="58" spans="1:33">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="4"/>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65">
-        <f>B15-I15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C68" s="14"/>
     </row>
   </sheetData>
